--- a/output/missing-values-MaritalStatus.xlsx
+++ b/output/missing-values-MaritalStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -98,6 +101,12 @@
     <t xml:space="preserve">TSH0027</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0100</t>
   </si>
   <si>
@@ -110,6 +119,18 @@
     <t xml:space="preserve">TSH0201</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0428</t>
   </si>
   <si>
@@ -119,12 +140,30 @@
     <t xml:space="preserve">TSH0458</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0768</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0834</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1008</t>
   </si>
   <si>
@@ -149,6 +188,9 @@
     <t xml:space="preserve">TSH1311</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1384</t>
   </si>
   <si>
@@ -168,12 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1922</t>
@@ -674,7 +710,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -698,7 +734,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -710,7 +746,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -881,6 +917,78 @@
         <v>54</v>
       </c>
       <c r="B62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
